--- a/CashFlow/WDAY_cashflow.xlsx
+++ b/CashFlow/WDAY_cashflow.xlsx
@@ -821,19 +821,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-3476000.0</v>
+        <v>224000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6492000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>44446000.0</v>
+        <v>192716000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-21385000.0</v>
+        <v>78192000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>22400000.0</v>
+        <v>64595000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1149000.0</v>
